--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA47B342-D48D-4D44-9B4B-B7B8F218C99E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCF0D9E-87B6-A647-8531-18BCDA4ED38B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>नेपाल</t>
   </si>
@@ -33,15 +33,9 @@
     <t>कुल परिक्षण गरिएको</t>
   </si>
   <si>
-    <t>८०२ </t>
-  </si>
-  <si>
     <t>कुल संक्रमित</t>
   </si>
   <si>
-    <t>४ </t>
-  </si>
-  <si>
     <t>कुल निको भएका</t>
   </si>
   <si>
@@ -118,6 +112,15 @@
   </si>
   <si>
     <t>सेती अस्पताल, धनगडि</t>
+  </si>
+  <si>
+    <t>बाग्लुङ</t>
+  </si>
+  <si>
+    <t>२०७६ चैत १५</t>
+  </si>
+  <si>
+    <t>बेल्जियमबाट कतार हुँदै फर्किएको</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-4000439]0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,6 +201,13 @@
     <font>
       <sz val="20"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="75"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,26 +267,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -593,19 +601,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
-  <dimension ref="A2:J11"/>
+  <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
@@ -625,67 +633,68 @@
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="92" x14ac:dyDescent="0.85">
-      <c r="A4" s="12" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="15" customFormat="1" ht="96" x14ac:dyDescent="1.05">
+      <c r="A4" s="13">
+        <v>875</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16">
+        <v>5</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="18">
         <v>0</v>
       </c>
-      <c r="J4" s="17">
+      <c r="I4" s="18"/>
+      <c r="J4" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -696,19 +705,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -716,22 +725,22 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -742,16 +751,16 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -759,25 +768,54 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
+      <c r="C12" s="2">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.mohp.gov.np/en/news/577-corona-updates" xr:uid="{C362C123-9869-AB41-B90C-38F3A498ED5D}"/>
   </hyperlinks>

--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCF0D9E-87B6-A647-8531-18BCDA4ED38B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E119BEC6-5522-7E48-9A0F-BD9E953384A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -252,39 +252,42 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -604,7 +607,7 @@
   <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A3" sqref="A3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,32 +630,33 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" ht="96" x14ac:dyDescent="1.05">
-      <c r="A4" s="13">
-        <v>875</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+    <row r="4" spans="1:10" s="8" customFormat="1" ht="96" x14ac:dyDescent="1.05">
+      <c r="A4" s="14">
+        <v>993</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="16">
         <v>5</v>
       </c>
@@ -665,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="18"/>
-      <c r="J4" s="12">
+      <c r="J4" s="19">
         <v>0</v>
       </c>
     </row>
@@ -701,7 +705,7 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
       <c r="B8" t="s">
@@ -721,7 +725,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="7">
         <v>2</v>
       </c>
       <c r="B9" t="s">
@@ -744,7 +748,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="7">
         <v>3</v>
       </c>
       <c r="C10" s="2">
@@ -764,7 +768,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="7">
         <v>4</v>
       </c>
       <c r="B11" t="s">
@@ -787,7 +791,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="7">
         <v>5</v>
       </c>
       <c r="B12" t="s">

--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E119BEC6-5522-7E48-9A0F-BD9E953384A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13198F0-A1B6-D84C-AD02-86399B73713D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -145,36 +145,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="75"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="75"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="75"/>
-      <color rgb="FF008000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="75"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="75"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -206,11 +176,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="75"/>
+      <sz val="48"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="48"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FF008000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -238,24 +238,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -271,24 +270,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -607,7 +607,7 @@
   <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,46 +630,46 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" ht="96" x14ac:dyDescent="1.05">
-      <c r="A4" s="14">
-        <v>993</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16">
+    <row r="4" spans="1:10" s="19" customFormat="1" ht="62" x14ac:dyDescent="0.7">
+      <c r="A4" s="13">
+        <v>1060</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15">
         <v>5</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18">
+      <c r="G4" s="16"/>
+      <c r="H4" s="17">
         <v>0</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19">
+      <c r="I4" s="17"/>
+      <c r="J4" s="18">
         <v>0</v>
       </c>
     </row>

--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13198F0-A1B6-D84C-AD02-86399B73713D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E436755-40F1-1146-A5A9-ED42662E7985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -270,12 +270,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,10 +289,6 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -607,7 +607,7 @@
   <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,25 +651,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="19" customFormat="1" ht="62" x14ac:dyDescent="0.7">
-      <c r="A4" s="13">
-        <v>1060</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15">
+    <row r="4" spans="1:10" s="15" customFormat="1" ht="62" x14ac:dyDescent="0.7">
+      <c r="A4" s="16">
+        <v>1145</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="17">
         <v>5</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17">
+      <c r="G4" s="18"/>
+      <c r="H4" s="19">
         <v>0</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18">
+      <c r="I4" s="19"/>
+      <c r="J4" s="14">
         <v>0</v>
       </c>
     </row>

--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E436755-40F1-1146-A5A9-ED42662E7985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC998BA-C324-7A47-B5B9-7E716B9020EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>नेपाल</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>बेल्जियमबाट कतार हुँदै फर्किएको</t>
+  </si>
+  <si>
+    <t>२०७६ चैत २०</t>
+  </si>
+  <si>
+    <t>दोहाबाट फर्किएका व्यक्ति</t>
   </si>
 </sst>
 </file>
@@ -604,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
-  <dimension ref="A2:J12"/>
+  <dimension ref="A2:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,12 +659,12 @@
     </row>
     <row r="4" spans="1:10" s="15" customFormat="1" ht="62" x14ac:dyDescent="0.7">
       <c r="A4" s="16">
-        <v>1145</v>
+        <v>1184</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="13"/>
       <c r="D4" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="18" t="s">
@@ -811,6 +817,20 @@
       </c>
       <c r="G12" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC998BA-C324-7A47-B5B9-7E716B9020EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A7CAE6-2276-264C-A130-3D836CB73A6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>नेपाल</t>
   </si>
@@ -126,7 +126,16 @@
     <t>२०७६ चैत २०</t>
   </si>
   <si>
-    <t>दोहाबाट फर्किएका व्यक्ति</t>
+    <t>२०७६ चैत २१</t>
+  </si>
+  <si>
+    <t>कास्की</t>
+  </si>
+  <si>
+    <t>भारतबाट आएका</t>
+  </si>
+  <si>
+    <t>कतार एयरलाईनस बाट दोहाबाट पाचौं संक्रमित महिलासंग फर्किएका व्यक्ति</t>
   </si>
 </sst>
 </file>
@@ -246,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -294,6 +303,12 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -610,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,7 +679,7 @@
       <c r="B4" s="16"/>
       <c r="C4" s="13"/>
       <c r="D4" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="18" t="s">
@@ -823,6 +838,15 @@
       <c r="A13" s="7">
         <v>6</v>
       </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
@@ -830,8 +854,114 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="E14" t="s">
         <v>33</v>
       </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="C20" s="21"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="C23" s="21"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A7CAE6-2276-264C-A130-3D836CB73A6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5151890F-C55F-8C42-BCFD-622A57961B6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>नेपाल</t>
   </si>
@@ -126,16 +126,28 @@
     <t>२०७६ चैत २०</t>
   </si>
   <si>
-    <t>२०७६ चैत २१</t>
-  </si>
-  <si>
-    <t>कास्की</t>
-  </si>
-  <si>
-    <t>भारतबाट आएका</t>
-  </si>
-  <si>
     <t>कतार एयरलाईनस बाट दोहाबाट पाचौं संक्रमित महिलासंग फर्किएका व्यक्ति</t>
+  </si>
+  <si>
+    <t>भारतबाट कैलाली आएका</t>
+  </si>
+  <si>
+    <t>भारतबाट कञ्चनपुर आएका</t>
+  </si>
+  <si>
+    <t>कैलाली</t>
+  </si>
+  <si>
+    <t>कञ्चनपुर</t>
+  </si>
+  <si>
+    <t>२०७६ चैत २२</t>
+  </si>
+  <si>
+    <t>धनगडि</t>
+  </si>
+  <si>
+    <t>चौथो केसको भाउजु</t>
   </si>
 </sst>
 </file>
@@ -292,6 +304,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,12 +321,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -627,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,23 +685,23 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="15" customFormat="1" ht="62" x14ac:dyDescent="0.7">
-      <c r="A4" s="16">
-        <v>1184</v>
-      </c>
-      <c r="B4" s="16"/>
+      <c r="A4" s="18">
+        <v>1356</v>
+      </c>
+      <c r="B4" s="18"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="17">
-        <v>7</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18" t="s">
+      <c r="D4" s="19">
+        <v>9</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19">
+      <c r="G4" s="20"/>
+      <c r="H4" s="21">
         <v>0</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="14">
         <v>0</v>
       </c>
@@ -854,7 +866,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -862,106 +874,147 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2">
         <v>34</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="C15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="C16" s="21"/>
-    </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="16"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="16"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="16"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="C20" s="21"/>
+      <c r="A20" s="16"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="16"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="16"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="16"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="C24" s="21"/>
+      <c r="A24" s="16"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="16"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="C26" s="21"/>
+      <c r="A26" s="16"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="C27" s="21"/>
+      <c r="A27" s="16"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="C28" s="21"/>
+      <c r="A28" s="16"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="16"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="C30" s="21"/>
+      <c r="A30" s="16"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
+      <c r="A31" s="16"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
+      <c r="A32" s="16"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
+      <c r="A33" s="16"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
+      <c r="A34" s="16"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
+      <c r="A35" s="16"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
+      <c r="A36" s="16"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
+      <c r="A37" s="16"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
+      <c r="A38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5151890F-C55F-8C42-BCFD-622A57961B6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A038438C-BFB4-C44E-A681-9D29AE6FE77F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
-  <si>
-    <t>नेपाल</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>कुल परिक्षण गरिएको</t>
   </si>
@@ -157,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-4000439]0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,22 +167,6 @@
       <color rgb="FF3A87AD"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="20"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -263,22 +244,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,34 +276,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -637,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
-  <dimension ref="A2:J38"/>
+  <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,98 +635,119 @@
     <col min="10" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="14" customFormat="1" ht="62" x14ac:dyDescent="0.7">
+      <c r="A3" s="17">
+        <v>1642</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="18">
+        <v>9</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="20">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" ht="62" x14ac:dyDescent="0.7">
-      <c r="A4" s="18">
-        <v>1356</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="19">
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>1</v>
+      <c r="A8" s="6">
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -758,274 +757,251 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>2</v>
+      <c r="A9" s="6">
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>31</v>
       </c>
       <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>31</v>
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1">
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>4</v>
+      <c r="A11" s="6">
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2">
-        <v>65</v>
-      </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>8</v>
+      <c r="A15" s="6">
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2">
-        <v>21</v>
+      <c r="C15" s="1">
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="2">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+      <c r="A16" s="15"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="15"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="15"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="15"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="15"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="15"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="15"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="15"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="15"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="15"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="15"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="15"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="15"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="15"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
+      <c r="A34" s="15"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
+      <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
+      <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
+      <c r="A37" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.mohp.gov.np/en/news/577-corona-updates" xr:uid="{C362C123-9869-AB41-B90C-38F3A498ED5D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A038438C-BFB4-C44E-A681-9D29AE6FE77F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349A2063-0E1B-454C-ABC6-881321BE3BBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,7 +659,7 @@
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="62" x14ac:dyDescent="0.7">
       <c r="A3" s="17">
-        <v>1642</v>
+        <v>1890</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="12"/>

--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349A2063-0E1B-454C-ABC6-881321BE3BBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255438C4-D836-5E43-B112-E6F2BBE0528C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>कुल परिक्षण गरिएको</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>चौथो केसको भाउजु</t>
+  </si>
+  <si>
+    <t>२०७६ चैत ३०</t>
+  </si>
+  <si>
+    <t>बिरगंज</t>
+  </si>
+  <si>
+    <t>भारतीय नागरिक</t>
   </si>
 </sst>
 </file>
@@ -618,7 +627,7 @@
   <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G17" sqref="G17:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,12 +668,12 @@
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="62" x14ac:dyDescent="0.7">
       <c r="A3" s="17">
-        <v>1890</v>
+        <v>4426</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="12"/>
       <c r="D3" s="18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="19" t="s">
@@ -918,66 +927,108 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
       <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="C22" s="16"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="C23" s="16"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="C26" s="16"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="C27" s="16"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">

--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255438C4-D836-5E43-B112-E6F2BBE0528C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22F01BD-0A2C-0249-9511-DC9C3CA7253D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>कुल परिक्षण गरिएको</t>
   </si>
@@ -108,9 +108,6 @@
     <t>मध्य पुर्वी देशबाट फर्किएका</t>
   </si>
   <si>
-    <t>सेती अस्पताल, धनगडि</t>
-  </si>
-  <si>
     <t>बाग्लुङ</t>
   </si>
   <si>
@@ -154,6 +151,15 @@
   </si>
   <si>
     <t>भारतीय नागरिक</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख १</t>
+  </si>
+  <si>
+    <t>रौतहट</t>
+  </si>
+  <si>
+    <t>१०-१२ नं संक्रमित भेटिएको ठाउँ बीरगंजमा उनको चीयाको पसल छ। कैलालीमा नातेदार भेट्न गएको</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-4000439]0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,6 +234,29 @@
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -239,7 +268,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,37 +285,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -298,16 +311,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -624,434 +657,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
-  <dimension ref="A2:J37"/>
+  <dimension ref="A2:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G18"/>
+      <selection activeCell="M6" sqref="M6:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="14" customFormat="1" ht="62" x14ac:dyDescent="0.7">
-      <c r="A3" s="17">
-        <v>4426</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="18">
+    <row r="3" spans="1:17" s="8" customFormat="1" ht="62" x14ac:dyDescent="0.7">
+      <c r="A3" s="23">
+        <v>5691</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24">
+        <v>14</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19" t="s">
+      <c r="E6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>14</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="14">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14">
+        <v>65</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>11</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="14">
+        <v>41</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>8</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="14">
+        <v>21</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>7</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="14">
+        <v>34</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>6</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="14">
+        <v>65</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>5</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="14">
+        <v>22</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>4</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="14">
+        <v>34</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>3</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="B18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="14">
+        <v>31</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>2</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="14">
+        <v>19</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C20" s="14">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G20" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="C20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="C24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="C26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="C27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="C28" s="16"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="C29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22F01BD-0A2C-0249-9511-DC9C3CA7253D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D542A2BC-E6B6-DE4B-8C99-2B63995693E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>कुल परिक्षण गरिएको</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>१०-१२ नं संक्रमित भेटिएको ठाउँ बीरगंजमा उनको चीयाको पसल छ। कैलालीमा नातेदार भेट्न गएको</t>
+  </si>
+  <si>
+    <t>ब्रिटेनबाट फर्किएका सनसिटिका एकै परिवारका २ सदस्य</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख २</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-4000439]0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,6 +260,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -331,6 +345,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,6 +360,19 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
-  <dimension ref="A2:Q51"/>
+  <dimension ref="A2:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:Q6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,30 +720,30 @@
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="8" customFormat="1" ht="62" x14ac:dyDescent="0.7">
-      <c r="A3" s="23">
-        <v>5691</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24">
-        <v>14</v>
-      </c>
-      <c r="D3" s="24"/>
+      <c r="A3" s="25">
+        <v>7240</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26">
+        <v>16</v>
+      </c>
+      <c r="D3" s="26"/>
       <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="24">
         <v>0</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="7">
         <v>0</v>
       </c>
@@ -755,97 +786,111 @@
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
     </row>
-    <row r="7" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>14</v>
+    <row r="7" spans="1:17" s="21" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
+        <v>16</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="14">
+        <v>21</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="1:17" s="21" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="14">
-        <v>65</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="E8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="C9" s="14">
+        <v>19</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="C10" s="14">
+        <v>65</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="E10" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
@@ -858,62 +903,54 @@
     </row>
     <row r="12" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="14">
+        <v>40</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="14">
-        <v>21</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>13</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="14">
-        <v>34</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>19</v>
+        <v>41</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>36</v>
@@ -922,127 +959,127 @@
         <v>10</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C15" s="14">
-        <v>65</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C16" s="14">
-        <v>22</v>
-      </c>
-      <c r="D16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C17" s="14">
-        <v>34</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C18" s="14">
-        <v>31</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C19" s="14">
-        <v>19</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>21</v>
@@ -1050,26 +1087,64 @@
       <c r="C20" s="14">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>2</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="14">
+        <v>19</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>1</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="14">
+        <v>31</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
@@ -1101,9 +1176,11 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
+      <c r="C44" s="10"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
@@ -1122,6 +1199,12 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D542A2BC-E6B6-DE4B-8C99-2B63995693E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F292B2DD-C211-7F41-A97A-7D32ADB5B9DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="51">
   <si>
     <t>कुल परिक्षण गरिएको</t>
   </si>
@@ -36,9 +36,6 @@
     <t>कुल निको भएका</t>
   </si>
   <si>
-    <t>१ </t>
-  </si>
-  <si>
     <t>कुल जटिल केस</t>
   </si>
   <si>
@@ -166,6 +163,21 @@
   </si>
   <si>
     <t>२०७७ बैशाख २</t>
+  </si>
+  <si>
+    <t>उदयपुर</t>
+  </si>
+  <si>
+    <t>दिल्लीबाट आएका १२ भारतीय नागरीक</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख ५</t>
+  </si>
+  <si>
+    <t>मंसिर २४ गते दिल्लीबाट आएका १२ भारतीय नागरीक</t>
+  </si>
+  <si>
+    <t>युकेबाट हङकङ हुँदै चैत ५ मा नेपाल फर्केका आमा छोरा</t>
   </si>
 </sst>
 </file>
@@ -273,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +295,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -324,9 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,18 +364,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -374,6 +377,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
-  <dimension ref="A2:Q53"/>
+  <dimension ref="A2:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,495 +740,768 @@
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:17" s="8" customFormat="1" ht="62" x14ac:dyDescent="0.7">
-      <c r="A3" s="25">
-        <v>7240</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26">
-        <v>16</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="24">
+      <c r="A3" s="29">
+        <v>8017</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30">
+        <v>30</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31">
+        <v>2</v>
+      </c>
+      <c r="F3" s="28">
         <v>0</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="1:17" s="32" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34">
+        <v>30</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="32" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34">
+        <v>29</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="32" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34">
+        <v>28</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="32" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
+        <v>27</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="32" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34">
+        <v>26</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="32" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
+        <v>25</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="32" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
+        <v>24</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="32" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
+        <v>23</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="32" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
+        <v>22</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="32" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34">
+        <v>21</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="32" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
+        <v>20</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="32" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
+        <v>19</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="32" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="32" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
+        <v>17</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="20" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>16</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+    </row>
+    <row r="22" spans="1:16" s="20" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>14</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="13">
+        <v>19</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>13</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="13">
+        <v>65</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>12</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>11</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>10</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>9</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="13">
+        <v>41</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>8</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="13">
+        <v>21</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>7</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="13">
+        <v>34</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
         <v>6</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="B31" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="13">
+        <v>65</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>5</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="13">
+        <v>22</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>4</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="13">
+        <v>34</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>3</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="13">
+        <v>31</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>2</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="13">
+        <v>19</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G35" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>1</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="13">
+        <v>31</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="1:17" s="21" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
-        <v>16</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:17" s="21" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
-        <v>15</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="30"/>
-    </row>
-    <row r="9" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>14</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="14">
-        <v>19</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>13</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="14">
-        <v>65</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>12</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>10</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>9</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="14">
-        <v>41</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>8</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="14">
-        <v>21</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>7</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="14">
-        <v>34</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>6</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="14">
-        <v>65</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>5</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="14">
-        <v>22</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>4</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="14">
-        <v>34</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>3</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="14">
-        <v>31</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>2</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="14">
-        <v>19</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>1</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="14">
-        <v>31</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="C37" s="10"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="C41" s="10"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="C42" s="10"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="C43" s="10"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="C44" s="10"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="C45" s="10"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R37" s="35"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C52" s="10"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="C58" s="10"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="C59" s="10"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="9"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AE0824-728C-0D4A-A564-E81A9EA88CA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FF0F89-5FF7-CA40-9E55-FCD455C70809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="53">
   <si>
     <t>कुल परिक्षण गरिएको</t>
   </si>
@@ -298,7 +298,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,12 +308,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +362,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,24 +394,24 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -437,6 +430,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
   <dimension ref="A2:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -777,50 +771,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="39"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="62" x14ac:dyDescent="0.7">
-      <c r="A3" s="41">
+      <c r="A3" s="40">
         <v>8414</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41">
         <v>31</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="25">
+      <c r="D3" s="41"/>
+      <c r="E3" s="24">
         <v>4</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>0</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <v>0</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>27</v>
       </c>
-      <c r="L3" s="40"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -828,25 +822,25 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="8"/>
@@ -860,448 +854,462 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="7">
         <v>31</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:17" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+    <row r="8" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>19</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>31</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="D9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="36" t="s">
+      <c r="F9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:17" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+    <row r="10" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>34</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="37" t="s">
+      <c r="F10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
     </row>
     <row r="11" spans="1:17" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="7">
         <v>22</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:17" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+    <row r="12" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="27">
         <v>65</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:17" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>34</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="36" t="s">
+      <c r="F13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:17" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+    <row r="14" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
         <v>8</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>21</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="29" t="s">
+      <c r="D14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
     </row>
     <row r="15" spans="1:17" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="7">
         <v>41</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="22" t="s">
+      <c r="D15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="36" t="s">
+      <c r="F15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:17" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
+    <row r="16" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
         <v>10</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29" t="s">
+      <c r="C16" s="27">
         <v>37</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="37" t="s">
+      <c r="D16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
     </row>
     <row r="17" spans="1:16" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22" t="s">
+      <c r="C17" s="7">
+        <v>55</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="36" t="s">
+      <c r="F17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="1:16" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
-        <v>12</v>
-      </c>
-      <c r="B18" s="29" t="s">
+    <row r="18" spans="1:16" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
+        <v>12</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29" t="s">
+      <c r="C18" s="27">
+        <v>44</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="37" t="s">
+      <c r="F18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
     </row>
     <row r="19" spans="1:16" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>13</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="7">
         <v>65</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="36" t="s">
+      <c r="F19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="1:16" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
+    <row r="20" spans="1:16" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
         <v>14</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>19</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
+      <c r="F20" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
     </row>
     <row r="21" spans="1:16" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>15</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="11">
+        <v>81</v>
+      </c>
       <c r="D21" s="12" t="s">
         <v>18</v>
       </c>
@@ -1311,7 +1319,7 @@
       <c r="F21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="37" t="s">
         <v>42</v>
       </c>
       <c r="H21" s="13"/>
@@ -1324,35 +1332,37 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:16" s="35" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28">
+    <row r="22" spans="1:16" s="34" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
         <v>16</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="29" t="s">
+      <c r="C22" s="27">
+        <v>58</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="37" t="s">
+      <c r="F22" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
     </row>
     <row r="23" spans="1:16" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
@@ -1373,50 +1383,50 @@
       <c r="F23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="1:16" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28">
+    <row r="24" spans="1:16" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
         <v>18</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <v>40</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="29" t="s">
+      <c r="D24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="37" t="s">
+      <c r="F24" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
@@ -1437,50 +1447,50 @@
       <c r="F25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
     </row>
-    <row r="26" spans="1:16" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28">
+    <row r="26" spans="1:16" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
         <v>20</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="27">
         <v>25</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="29" t="s">
+      <c r="D26" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="37" t="s">
+      <c r="F26" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
     </row>
     <row r="27" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
@@ -1501,50 +1511,50 @@
       <c r="F27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
     </row>
-    <row r="28" spans="1:16" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28">
+    <row r="28" spans="1:16" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27">
         <v>22</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="27">
         <v>28</v>
       </c>
-      <c r="D28" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="29" t="s">
+      <c r="D28" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="37" t="s">
+      <c r="F28" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
     </row>
     <row r="29" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
@@ -1565,50 +1575,50 @@
       <c r="F29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
     </row>
-    <row r="30" spans="1:16" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28">
+    <row r="30" spans="1:16" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27">
         <v>24</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="27">
         <v>28</v>
       </c>
-      <c r="D30" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="29" t="s">
+      <c r="D30" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="37" t="s">
+      <c r="F30" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
     </row>
     <row r="31" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
@@ -1629,50 +1639,50 @@
       <c r="F31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
     </row>
-    <row r="32" spans="1:16" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28">
+    <row r="32" spans="1:16" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27">
         <v>26</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <v>26</v>
       </c>
-      <c r="D32" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="29" t="s">
+      <c r="D32" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="37" t="s">
+      <c r="F32" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
     </row>
     <row r="33" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
@@ -1693,50 +1703,50 @@
       <c r="F33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
     </row>
-    <row r="34" spans="1:18" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28">
+    <row r="34" spans="1:18" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27">
         <v>28</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="27">
         <v>34</v>
       </c>
-      <c r="D34" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="29" t="s">
+      <c r="D34" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="37" t="s">
+      <c r="F34" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
     </row>
     <row r="35" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
@@ -1757,50 +1767,50 @@
       <c r="F35" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
     </row>
-    <row r="36" spans="1:18" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28">
+    <row r="36" spans="1:18" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27">
         <v>30</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="27">
         <v>27</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="29" t="s">
+      <c r="D36" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="37" t="s">
+      <c r="F36" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
     </row>
     <row r="37" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
@@ -1821,7 +1831,7 @@
       <c r="F37" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="37" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="12"/>
@@ -1829,14 +1839,14 @@
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N38" s="31"/>
-      <c r="R38" s="15"/>
+      <c r="N38" s="30"/>
+      <c r="R38" s="43"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>

--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FF0F89-5FF7-CA40-9E55-FCD455C70809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364855A8-E0FE-A046-AE5B-F67310519F0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="54">
   <si>
     <t>कुल परिक्षण गरिएको</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>२०७६ चैत ७ मा फ्रान्सबाट कतार हुँदै नेपाल फर्किएको विद्यार्थी प्रसिद्धि श्रेष्ठ</t>
+  </si>
+  <si>
+    <t>मंसिर २४ गते दिल्लीबाट आएका भारतीय नागरीक</t>
   </si>
 </sst>
 </file>
@@ -330,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -430,7 +433,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AAF27A-454E-714F-A0A1-E5DF24506639}">
-  <dimension ref="A2:R68"/>
+  <dimension ref="A2:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,11 +809,11 @@
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="62" x14ac:dyDescent="0.7">
       <c r="A3" s="40">
-        <v>8414</v>
+        <v>8763</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="41">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="24">
@@ -812,7 +826,8 @@
         <v>0</v>
       </c>
       <c r="H3" s="19">
-        <v>27</v>
+        <f>C3-E3</f>
+        <v>28</v>
       </c>
       <c r="L3" s="39"/>
     </row>
@@ -1384,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -1448,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -1480,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -1512,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -1544,7 +1559,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
@@ -1576,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -1608,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
@@ -1640,7 +1655,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
@@ -1672,7 +1687,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
@@ -1684,7 +1699,7 @@
       <c r="O32" s="31"/>
       <c r="P32" s="31"/>
     </row>
-    <row r="33" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>27</v>
       </c>
@@ -1704,7 +1719,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
@@ -1716,7 +1731,7 @@
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
     </row>
-    <row r="34" spans="1:18" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="27">
         <v>28</v>
       </c>
@@ -1736,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
@@ -1748,7 +1763,7 @@
       <c r="O34" s="31"/>
       <c r="P34" s="31"/>
     </row>
-    <row r="35" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>29</v>
       </c>
@@ -1780,7 +1795,7 @@
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
     </row>
-    <row r="36" spans="1:18" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27">
         <v>30</v>
       </c>
@@ -1812,7 +1827,7 @@
       <c r="O36" s="31"/>
       <c r="P36" s="31"/>
     </row>
-    <row r="37" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>31</v>
       </c>
@@ -1832,7 +1847,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -1844,9 +1859,55 @@
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N38" s="30"/>
-      <c r="R38" s="43"/>
+    <row r="38" spans="1:16" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="46">
+        <v>32</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="46">
+        <v>33</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G40" s="44"/>
+    </row>
+    <row r="41" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G41" s="44"/>
+    </row>
+    <row r="42" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="44"/>
+    </row>
+    <row r="43" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="44"/>
+    </row>
+    <row r="44" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G44" s="44"/>
+    </row>
+    <row r="45" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G45" s="44"/>
+    </row>
+    <row r="46" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G46" s="44"/>
+    </row>
+    <row r="47" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G47" s="44"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>

--- a/nepal.xlsx
+++ b/nepal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364855A8-E0FE-A046-AE5B-F67310519F0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE30A5DA-7483-CB4A-A234-5A8C558C161E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{AD3481E4-B20C-4446-9445-31D5E958F254}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="56">
   <si>
     <t>कुल परिक्षण गरिएको</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>मंसिर २४ गते दिल्लीबाट आएका भारतीय नागरीक</t>
+  </si>
+  <si>
+    <t>२०७७ बैशाख ९</t>
+  </si>
+  <si>
+    <t>नखुलेको</t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -333,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -424,6 +436,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,18 +476,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,7 +800,7 @@
   <dimension ref="A2:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -789,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="23"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
@@ -808,14 +841,14 @@
       <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="62" x14ac:dyDescent="0.7">
-      <c r="A3" s="40">
-        <v>8763</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41">
-        <v>32</v>
-      </c>
-      <c r="D3" s="41"/>
+      <c r="A3" s="53">
+        <v>8773</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54">
+        <v>42</v>
+      </c>
+      <c r="D3" s="54"/>
       <c r="E3" s="24">
         <v>4</v>
       </c>
@@ -827,7 +860,7 @@
       </c>
       <c r="H3" s="19">
         <f>C3-E3</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L3" s="39"/>
     </row>
@@ -869,69 +902,69 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:17" s="48" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="42">
         <v>31</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-    </row>
-    <row r="8" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+    </row>
+    <row r="8" spans="1:17" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
         <v>2</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="42">
         <v>19</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -965,37 +998,37 @@
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+    <row r="10" spans="1:17" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
         <v>4</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="42">
         <v>34</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="36" t="s">
+      <c r="F10" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
     </row>
     <row r="11" spans="1:17" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -1029,37 +1062,37 @@
       <c r="O11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+    <row r="12" spans="1:17" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42">
         <v>6</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="42">
         <v>65</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
     </row>
     <row r="13" spans="1:17" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -1093,37 +1126,37 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+    <row r="14" spans="1:17" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
         <v>8</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="42">
         <v>21</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="28" t="s">
+      <c r="D14" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
     </row>
     <row r="15" spans="1:17" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
@@ -1859,114 +1892,301 @@
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
     </row>
-    <row r="38" spans="1:16" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46">
+    <row r="38" spans="1:16" s="40" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="41">
         <v>32</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="41">
+        <v>18</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="1:16" s="51" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="50">
         <v>33</v>
       </c>
-      <c r="D38" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G39" s="44"/>
-    </row>
-    <row r="40" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G40" s="44"/>
-    </row>
-    <row r="41" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G42" s="44"/>
-    </row>
-    <row r="43" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G43" s="44"/>
-    </row>
-    <row r="44" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G44" s="44"/>
-    </row>
-    <row r="45" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G45" s="44"/>
-    </row>
-    <row r="46" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G46" s="44"/>
-    </row>
-    <row r="47" spans="1:16" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G47" s="44"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="50">
+        <v>18</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="52"/>
+    </row>
+    <row r="40" spans="1:16" s="40" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="41">
+        <v>34</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="41">
+        <v>20</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="49"/>
+    </row>
+    <row r="41" spans="1:16" s="51" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="50">
+        <v>35</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="50">
+        <v>33</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="52"/>
+    </row>
+    <row r="42" spans="1:16" s="40" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="41">
+        <v>36</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="41">
+        <v>40</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="49"/>
+    </row>
+    <row r="43" spans="1:16" s="51" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="50">
+        <v>37</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="50">
+        <v>41</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="52"/>
+    </row>
+    <row r="44" spans="1:16" s="40" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="41">
+        <v>38</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="41">
+        <v>41</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="49"/>
+    </row>
+    <row r="45" spans="1:16" s="51" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="50">
+        <v>39</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="50">
+        <v>52</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="52"/>
+    </row>
+    <row r="46" spans="1:16" s="40" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="41">
+        <v>40</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="27">
+        <v>58</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="49"/>
+    </row>
+    <row r="47" spans="1:16" s="51" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="50">
+        <v>41</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="52"/>
+    </row>
+    <row r="48" spans="1:16" s="28" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="27">
+        <v>42</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="41">
+        <v>36</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="36"/>
+    </row>
+    <row r="49" spans="1:7" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11"/>
+      <c r="G49" s="37"/>
+    </row>
+    <row r="50" spans="1:7" s="21" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="35"/>
+    </row>
+    <row r="51" spans="1:7" s="21" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="35"/>
+    </row>
+    <row r="52" spans="1:7" s="21" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="35"/>
+    </row>
+    <row r="53" spans="1:7" s="21" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="35"/>
+    </row>
+    <row r="54" spans="1:7" s="21" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="35"/>
+    </row>
+    <row r="55" spans="1:7" s="21" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="35"/>
+    </row>
+    <row r="56" spans="1:7" s="21" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="35"/>
+    </row>
+    <row r="57" spans="1:7" s="21" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="35"/>
+    </row>
+    <row r="58" spans="1:7" s="21" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="35"/>
+    </row>
+    <row r="59" spans="1:7" s="21" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="35"/>
+    </row>
+    <row r="60" spans="1:7" s="21" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="35"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
     </row>
   </sheetData>
